--- a/biology/Zoologie/Amygdalodon/Amygdalodon.xlsx
+++ b/biology/Zoologie/Amygdalodon/Amygdalodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Amygdalodon (« dent en amande ») est un genre de dinosaure herbivore à long cou qui vivait en Argentine (Chubut) il y a 175 à 161 Ma. Son nom est considéré comme nomen dubium. On a découvert peu de fragments et on sait peu de choses sur lui. C’est l’un des seuls dinosaures du Jurassique d’Amérique du Sud trouvé aussi loin. Il a été décrit par Ángel Cabrera en 1947. L'étude fut complétée en 1963 par Casamiquela. On a aussi retrouvé cette espèce en Europe, Asie, et Afrique du Nord, montrant ainsi que ces régions devaient à l'époque être reliées.
 Son nom signifie dent en amande
@@ -515,7 +527,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>MLP 46-VIII-21-1/2: dents, vertèbres, côtes, bassin et tibia incomplets.
 MLP 36-XI-10-3/1: vertèbres, tibia partiel.</t>
